--- a/myCBD/www/gbd.ICD.MapIMAGE.xlsx
+++ b/myCBD/www/gbd.ICD.MapIMAGE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>A. Infectious and parasitic diseases</t>
   </si>
@@ -627,9 +627,6 @@
     <t>3. Asthma/Other respiratory diseases</t>
   </si>
   <si>
-    <t xml:space="preserve">  D.   12. Sudden infant death syndrome</t>
-  </si>
-  <si>
     <t>B. Malignant neoplasms</t>
   </si>
   <si>
@@ -697,6 +694,12 @@
   </si>
   <si>
     <t>3. Collective violence and legal int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12. Sudden infant death syndrome (relocated)</t>
+  </si>
+  <si>
+    <t>99. Other Chronic Coditions</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
@@ -1136,6 +1138,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1472,8 +1475,8 @@
   </sheetPr>
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1492,78 +1495,78 @@
   <sheetData>
     <row r="1" spans="2:8" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="B3" s="34"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="33"/>
+      <c r="D3" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="D4" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="D4" s="43" t="s">
+      <c r="F4" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="D5" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="D5" s="44" t="s">
+      <c r="F5" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="D6" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="D6" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D8" s="30"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
-        <v>206</v>
+      <c r="B9" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="29"/>
-      <c r="F10" s="13" t="s">
-        <v>55</v>
+      <c r="B10" s="28"/>
+      <c r="F10" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>116</v>
@@ -1571,14 +1574,14 @@
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="10" t="s">
-        <v>56</v>
+      <c r="F11" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>117</v>
@@ -1593,7 +1596,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>118</v>
@@ -1608,15 +1611,15 @@
         <v>137</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="12" t="s">
-        <v>156</v>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C14" s="1"/>
@@ -1625,7 +1628,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>120</v>
@@ -1633,14 +1636,14 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>139</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>184</v>
@@ -1655,7 +1658,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>185</v>
@@ -1669,8 +1672,8 @@
         <v>44</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="17" t="s">
-        <v>160</v>
+      <c r="F17" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>186</v>
@@ -1684,8 +1687,8 @@
         <v>45</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="10" t="s">
-        <v>197</v>
+      <c r="F18" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>187</v>
@@ -1699,8 +1702,8 @@
         <v>46</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="18" t="s">
-        <v>161</v>
+      <c r="F19" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>121</v>
@@ -1714,8 +1717,8 @@
         <v>47</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="19" t="s">
-        <v>162</v>
+      <c r="F20" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>122</v>
@@ -1723,14 +1726,14 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>123</v>
@@ -1744,11 +1747,11 @@
         <v>49</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="18" t="s">
-        <v>164</v>
+      <c r="F22" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -1760,7 +1763,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="18" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -1772,7 +1775,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -1784,7 +1787,7 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -1796,7 +1799,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="18" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1809,7 +1812,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="18" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -1820,8 +1823,8 @@
         <v>52</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="19" t="s">
-        <v>169</v>
+      <c r="F28" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
@@ -1833,43 +1836,43 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="18" t="s">
-        <v>64</v>
+      <c r="F30" s="19" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="12" t="s">
-        <v>65</v>
+      <c r="F31" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>143</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="10" t="s">
-        <v>198</v>
+      <c r="F32" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -1880,8 +1883,8 @@
         <v>144</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="20" t="s">
-        <v>59</v>
+      <c r="F33" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -1892,8 +1895,8 @@
         <v>145</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="18" t="s">
-        <v>60</v>
+      <c r="F34" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -1904,8 +1907,8 @@
         <v>146</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="21" t="s">
-        <v>125</v>
+      <c r="F35" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -1917,7 +1920,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -1929,31 +1932,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="21" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="26" t="s">
-        <v>224</v>
+      <c r="B38" s="25" t="s">
+        <v>223</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="19" t="s">
-        <v>166</v>
+      <c r="F38" s="21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>150</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -1964,8 +1967,8 @@
         <v>151</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="13" t="s">
-        <v>66</v>
+      <c r="F40" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -1976,8 +1979,8 @@
         <v>152</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="14" t="s">
-        <v>171</v>
+      <c r="F41" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -1988,8 +1991,8 @@
         <v>153</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="18" t="s">
-        <v>67</v>
+      <c r="F42" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -2001,7 +2004,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -2013,7 +2016,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -2023,7 +2026,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -2031,11 +2034,11 @@
         <v>19</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -2046,8 +2049,8 @@
         <v>80</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="22" t="s">
-        <v>72</v>
+      <c r="F47" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -2058,20 +2061,20 @@
         <v>81</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="13" t="s">
-        <v>73</v>
+      <c r="F48" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>190</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>82</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="12" t="s">
-        <v>74</v>
+      <c r="F49" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -2083,7 +2086,7 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -2095,19 +2098,19 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="12" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>85</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="12" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -2116,7 +2119,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -2124,7 +2127,7 @@
         <v>188</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -2133,7 +2136,7 @@
       </c>
       <c r="D55" s="3"/>
       <c r="F55" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -2141,8 +2144,8 @@
         <v>21</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="F56" s="13" t="s">
-        <v>86</v>
+      <c r="F56" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -2151,8 +2154,8 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
-      <c r="F57" s="14" t="s">
-        <v>87</v>
+      <c r="F57" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -2161,8 +2164,8 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="2"/>
-      <c r="F58" s="12" t="s">
-        <v>88</v>
+      <c r="F58" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -2171,18 +2174,18 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="F59" s="14" t="s">
-        <v>201</v>
+      <c r="F59" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="2"/>
-      <c r="F60" s="10" t="s">
-        <v>89</v>
+      <c r="F60" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -2191,8 +2194,8 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="4"/>
-      <c r="F61" s="12" t="s">
-        <v>90</v>
+      <c r="F61" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
@@ -2201,8 +2204,8 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="F62" s="18" t="s">
-        <v>91</v>
+      <c r="F62" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
@@ -2212,17 +2215,17 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="F63" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="2"/>
       <c r="F64" s="18" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
@@ -2231,7 +2234,7 @@
       </c>
       <c r="C65" s="2"/>
       <c r="F65" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
@@ -2241,7 +2244,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="F66" s="18" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
@@ -2251,7 +2254,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="F67" s="18" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
@@ -2261,7 +2264,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="F68" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
@@ -2271,7 +2274,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="4"/>
       <c r="F69" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
@@ -2280,18 +2283,18 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="F70" s="13" t="s">
-        <v>93</v>
+      <c r="F70" s="18" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="2"/>
-      <c r="F71" s="22" t="s">
-        <v>94</v>
+      <c r="F71" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
@@ -2300,8 +2303,8 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="F72" s="19" t="s">
-        <v>178</v>
+      <c r="F72" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
@@ -2311,7 +2314,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="F73" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
@@ -2321,7 +2324,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="4"/>
       <c r="F74" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
@@ -2330,141 +2333,143 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="F75" s="18" t="s">
-        <v>181</v>
+      <c r="F75" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="13" t="s">
-        <v>36</v>
+      <c r="B76" s="46" t="s">
+        <v>225</v>
       </c>
       <c r="C76" s="4"/>
       <c r="F76" s="18" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="12" t="s">
-        <v>37</v>
+      <c r="B77" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C77" s="2"/>
       <c r="F77" s="18" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="2"/>
       <c r="F78" s="18" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2"/>
       <c r="F79" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="F80" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="F80" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="C81" s="2"/>
       <c r="F81" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="F82" s="13" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="F82" s="18" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C83" s="8"/>
       <c r="F83" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="F84" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="F85" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="F86" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
-      <c r="F87" s="10" t="s">
-        <v>105</v>
+      <c r="F87" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
-      <c r="F88" s="18" t="s">
-        <v>106</v>
+      <c r="F88" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="F89" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="F90" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="F91" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="F92" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="F93" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
-      <c r="F94" s="23" t="s">
-        <v>202</v>
+      <c r="F94" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
@@ -2494,14 +2499,13 @@
     <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="F99" s="24" t="s">
+      <c r="F99" s="23" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
